--- a/generated/Таблица_распределения_10.01.20.xlsx
+++ b/generated/Таблица_распределения_10.01.20.xlsx
@@ -32,15 +32,15 @@
     <t>Кабанова Людмила Геннадьевна</t>
   </si>
   <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Родная литература</t>
+  </si>
+  <si>
     <t>Русский язык</t>
   </si>
   <si>
-    <t>Литература</t>
-  </si>
-  <si>
-    <t>Родная литература</t>
-  </si>
-  <si>
     <t>3020в</t>
   </si>
   <si>
@@ -65,6 +65,30 @@
     <t>Итого:</t>
   </si>
   <si>
+    <t>Погудина Лада Геннадьевна</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Элементы высшей математики</t>
+  </si>
+  <si>
+    <t>Дискретная математика</t>
+  </si>
+  <si>
+    <t>Теория вероятностей и математическая статистика</t>
+  </si>
+  <si>
+    <t>Мелешкин Илья Петрович</t>
+  </si>
+  <si>
+    <t>Физическая культура</t>
+  </si>
+  <si>
+    <t>Адаптивная физическая культура</t>
+  </si>
+  <si>
     <t>Сидорова Светлана Витальевна</t>
   </si>
   <si>
@@ -74,21 +98,6 @@
     <t>ИЯ в ПД</t>
   </si>
   <si>
-    <t>Погудина Лада Геннадьевна</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Элементы высшей математики</t>
-  </si>
-  <si>
-    <t>Дискретная математика</t>
-  </si>
-  <si>
-    <t>Теория вероятностей и математическая статистика</t>
-  </si>
-  <si>
     <t>Галлиулина Эльвира Сайфуловна</t>
   </si>
   <si>
@@ -101,15 +110,6 @@
     <t>Философия</t>
   </si>
   <si>
-    <t>Мелешкин Илья Петрович</t>
-  </si>
-  <si>
-    <t>Физическая культура</t>
-  </si>
-  <si>
-    <t>Адаптивная физическая культура</t>
-  </si>
-  <si>
     <t>Соларёва Юлия Сергеевна</t>
   </si>
   <si>
@@ -128,6 +128,9 @@
     <t>Выполнение работ по профессии "Агент банка"</t>
   </si>
   <si>
+    <t>Анализ финансово-хозяйственной деятельности</t>
+  </si>
+  <si>
     <t>Менеджмент</t>
   </si>
   <si>
@@ -137,25 +140,22 @@
     <t>Аудит</t>
   </si>
   <si>
-    <t>Анализ финансово-хозяйственной деятельности</t>
-  </si>
-  <si>
     <t>Основы экономической теории</t>
   </si>
   <si>
     <t>Овчинников Антон Викторович</t>
   </si>
   <si>
+    <t>Инженерная компьютерная графика</t>
+  </si>
+  <si>
+    <t>Проектирование и дизайн информационных систем</t>
+  </si>
+  <si>
+    <t>Разработка кода информационных систем</t>
+  </si>
+  <si>
     <t>Основы проектирования БД</t>
-  </si>
-  <si>
-    <t>Инженерная компьютерная графика</t>
-  </si>
-  <si>
-    <t>Проектирование и дизайн информационных систем</t>
-  </si>
-  <si>
-    <t>Разработка кода информационных систем</t>
   </si>
 </sst>
 </file>
@@ -518,10 +518,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D116" sqref="D116"/>
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,7 +557,7 @@
         <v>3018</v>
       </c>
       <c r="D2" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -569,7 +569,7 @@
         <v>3018</v>
       </c>
       <c r="D3" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -581,7 +581,7 @@
         <v>3018</v>
       </c>
       <c r="D4" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -593,7 +593,7 @@
         <v>3019</v>
       </c>
       <c r="D5" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -605,7 +605,7 @@
         <v>3019</v>
       </c>
       <c r="D6" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -617,7 +617,7 @@
         <v>3019</v>
       </c>
       <c r="D7" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -629,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -641,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -653,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -665,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -701,7 +701,7 @@
         <v>3039</v>
       </c>
       <c r="D14" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -713,7 +713,7 @@
         <v>3039</v>
       </c>
       <c r="D15" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -725,7 +725,7 @@
         <v>3039</v>
       </c>
       <c r="D16" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -839,7 +839,7 @@
         <v>3018</v>
       </c>
       <c r="D26" s="2">
-        <v>117</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -851,7 +851,7 @@
         <v>3019</v>
       </c>
       <c r="D27" s="2">
-        <v>117</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -863,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="2">
-        <v>117</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2">
-        <v>117</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -887,7 +887,7 @@
         <v>3039</v>
       </c>
       <c r="D30" s="2">
-        <v>117</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -895,11 +895,11 @@
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="2">
-        <v>3818</v>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -908,22 +908,22 @@
         <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33"/>
       <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3907</v>
       </c>
       <c r="D33" s="2">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -931,23 +931,23 @@
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="2">
-        <v>3907</v>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D34" s="2">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35"/>
       <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3918</v>
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D35" s="2">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -955,35 +955,35 @@
       <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
+      <c r="C36" s="2">
+        <v>3939</v>
       </c>
       <c r="D36" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37"/>
       <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3939</v>
       </c>
       <c r="D37" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38"/>
       <c r="B38" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2">
         <v>3939</v>
       </c>
       <c r="D38" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -993,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="5">
-        <v>1131</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1004,136 +1004,136 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2">
         <v>3018</v>
       </c>
       <c r="D41" s="2">
-        <v>234</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2">
         <v>3019</v>
       </c>
       <c r="D42" s="2">
-        <v>234</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43"/>
       <c r="B43" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2">
-        <v>234</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44"/>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2">
-        <v>234</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45"/>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2">
         <v>3039</v>
       </c>
       <c r="D45" s="2">
-        <v>234</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46"/>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47"/>
       <c r="B47" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48"/>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2">
         <v>3907</v>
       </c>
       <c r="D48" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49"/>
       <c r="B49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3918</v>
       </c>
       <c r="D49" s="2">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50"/>
       <c r="B50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51"/>
       <c r="B51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="2">
-        <v>3939</v>
+        <v>23</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D51" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1145,46 +1145,46 @@
         <v>3939</v>
       </c>
       <c r="D52" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53"/>
-      <c r="B53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="2">
-        <v>3939</v>
-      </c>
-      <c r="D53" s="2">
-        <v>42</v>
+      <c r="B53"/>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1100</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54"/>
       <c r="B54"/>
-      <c r="C54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1592</v>
-      </c>
+      <c r="C54"/>
+      <c r="D54"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
+      <c r="A55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3018</v>
+      </c>
+      <c r="D55" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A56"/>
       <c r="B56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="2">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="D56" s="2">
         <v>117</v>
@@ -1195,8 +1195,8 @@
       <c r="B57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="2">
-        <v>3019</v>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D57" s="2">
         <v>117</v>
@@ -1208,7 +1208,7 @@
         <v>25</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2">
         <v>117</v>
@@ -1219,8 +1219,8 @@
       <c r="B59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
+      <c r="C59" s="2">
+        <v>3039</v>
       </c>
       <c r="D59" s="2">
         <v>117</v>
@@ -1229,13 +1229,13 @@
     <row r="60" spans="1:4">
       <c r="A60"/>
       <c r="B60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="2">
-        <v>3039</v>
+        <v>26</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1244,10 +1244,10 @@
         <v>26</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1255,11 +1255,11 @@
       <c r="B62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>11</v>
+      <c r="C62" s="2">
+        <v>3907</v>
       </c>
       <c r="D62" s="2">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1267,11 +1267,11 @@
       <c r="B63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
+      <c r="C63" s="2">
+        <v>3918</v>
       </c>
       <c r="D63" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1280,22 +1280,22 @@
         <v>26</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65"/>
       <c r="B65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="2">
-        <v>3907</v>
+        <v>26</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D65" s="2">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,136 +1304,136 @@
         <v>26</v>
       </c>
       <c r="C66" s="2">
-        <v>3907</v>
+        <v>3939</v>
       </c>
       <c r="D66" s="2">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67"/>
-      <c r="B67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="2">
-        <v>3918</v>
-      </c>
-      <c r="D67" s="2">
-        <v>48</v>
+      <c r="B67"/>
+      <c r="C67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1083</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68"/>
-      <c r="B68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="2">
-        <v>3918</v>
-      </c>
-      <c r="D68" s="2">
-        <v>48</v>
-      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69"/>
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3018</v>
       </c>
       <c r="D69" s="2">
-        <v>34</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70"/>
       <c r="B70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3019</v>
       </c>
       <c r="D70" s="2">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71"/>
       <c r="B71" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2">
-        <v>48</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72"/>
       <c r="B72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73"/>
       <c r="B73" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C73" s="2">
-        <v>3939</v>
+        <v>3039</v>
       </c>
       <c r="D73" s="2">
-        <v>48</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1171</v>
+      <c r="B74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2">
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
+      <c r="B75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A76"/>
       <c r="B76" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="2">
-        <v>3018</v>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77"/>
       <c r="B77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="2">
-        <v>3019</v>
+        <v>28</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D77" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1441,35 +1441,35 @@
       <c r="B78" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
+      <c r="C78" s="2">
+        <v>3907</v>
       </c>
       <c r="D78" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79"/>
       <c r="B79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="C79" s="2">
+        <v>3907</v>
       </c>
       <c r="D79" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80"/>
       <c r="B80" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="2">
-        <v>3039</v>
+        <v>3918</v>
       </c>
       <c r="D80" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>29</v>
       </c>
       <c r="C81" s="2">
-        <v>3818</v>
+        <v>3918</v>
       </c>
       <c r="D81" s="2">
         <v>48</v>
@@ -1487,112 +1487,112 @@
     <row r="82" spans="1:4">
       <c r="A82"/>
       <c r="B82" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83"/>
       <c r="B83" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84"/>
       <c r="B84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="2">
-        <v>3907</v>
+        <v>28</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D84" s="2">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85"/>
       <c r="B85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="2">
-        <v>3918</v>
+        <v>30</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D85" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86"/>
       <c r="B86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3939</v>
       </c>
       <c r="D86" s="2">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87"/>
-      <c r="B87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="2">
-        <v>72</v>
+      <c r="B87"/>
+      <c r="C87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1171</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88"/>
-      <c r="B88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="2">
-        <v>3939</v>
-      </c>
-      <c r="D88" s="2">
-        <v>74</v>
-      </c>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="5">
-        <v>1148</v>
+      <c r="A89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
+      <c r="B90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A91"/>
       <c r="B91" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2">
         <v>200</v>
@@ -1604,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2">
         <v>162</v>
@@ -1613,145 +1613,145 @@
     <row r="93" spans="1:4">
       <c r="A93"/>
       <c r="B93" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>200</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94"/>
       <c r="B94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95"/>
       <c r="B95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96"/>
       <c r="B96" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2">
-        <v>72</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97"/>
       <c r="B97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3907</v>
       </c>
       <c r="D97" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98"/>
       <c r="B98" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3907</v>
       </c>
       <c r="D98" s="2">
-        <v>228</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99"/>
       <c r="B99" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C99" s="2">
         <v>3907</v>
       </c>
       <c r="D99" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100"/>
       <c r="B100" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2">
         <v>3907</v>
       </c>
       <c r="D100" s="2">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101"/>
       <c r="B101" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C101" s="2">
         <v>3907</v>
       </c>
       <c r="D101" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102"/>
       <c r="B102" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2">
-        <v>3907</v>
+        <v>3918</v>
       </c>
       <c r="D102" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103"/>
       <c r="B103" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C103" s="2">
-        <v>3907</v>
+        <v>3918</v>
       </c>
       <c r="D103" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104"/>
       <c r="B104" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C104" s="2">
-        <v>3918</v>
+        <v>34</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1759,95 +1759,95 @@
       <c r="B105" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="2">
-        <v>3918</v>
+      <c r="C105" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D105" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106"/>
       <c r="B106" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107"/>
       <c r="B107" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2">
-        <v>72</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108"/>
-      <c r="B108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="2">
-        <v>60</v>
+      <c r="B108"/>
+      <c r="C108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="5">
+        <v>2021</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109"/>
-      <c r="B109" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="2">
-        <v>228</v>
-      </c>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="5">
-        <v>2021</v>
+      <c r="A110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="2">
+        <v>3939</v>
+      </c>
+      <c r="D110" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
+      <c r="B111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="2">
+        <v>3939</v>
+      </c>
+      <c r="D111" s="2">
+        <v>226</v>
+      </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A112"/>
       <c r="B112" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2">
         <v>3939</v>
       </c>
       <c r="D112" s="2">
-        <v>64</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113"/>
       <c r="B113" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2">
         <v>3939</v>
@@ -1858,43 +1858,19 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114"/>
-      <c r="B114" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C114" s="2">
-        <v>3939</v>
-      </c>
-      <c r="D114" s="2">
-        <v>226</v>
+      <c r="B114"/>
+      <c r="C114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="5">
+        <v>546</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115"/>
-      <c r="B115" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C115" s="2">
-        <v>3939</v>
-      </c>
-      <c r="D115" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="5">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
